--- a/自如信息科技/OKR-Excel文档/2020年M6_OKRI-杨成琳.xlsx
+++ b/自如信息科技/OKR-Excel文档/2020年M6_OKRI-杨成琳.xlsx
@@ -125,96 +125,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color indexed="8"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color indexed="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t>demo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color indexed="8"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会议并学习</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color indexed="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">;
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color indexed="8"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">多多参加组织的各种分享会。
-</t>
-    </r>
-  </si>
-  <si>
     <t>2020M06</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提高代码质量</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color indexed="8"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个人成长</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>调整项目结构，优化代码</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -281,6 +192,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>精简代码行数，提高
+复用率，提高系统效率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解组内其他项目，
+加强同事间相互了解。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1</t>
     </r>
@@ -348,306 +269,6 @@
       </rPr>
       <t xml:space="preserve">甘特图开发
 </t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t>sugar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">平台统图上线
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t>zeus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>甘特图上线使用</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t>Sugar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">统计图调研及数据核对工作。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t>Sugar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">统计图的接口和页面开发工作。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t>zeus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>甘特图的需求调研工作。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-  4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t>zeus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>甘特图的开发工作。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、完成第二阶段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t>BI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">平台的重构工作。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、剥离底层通用代码到独立项目中。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color indexed="8"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color indexed="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-      </rPr>
-      <t>demo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color indexed="8"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会议，分享及聆听经验；
-完成每周的技术博客分享</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -745,13 +366,371 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>精简代码行数，提高
-复用率，提高系统效率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解组内其他项目，
-加强同事间相互了解。</t>
+    <r>
+      <t xml:space="preserve">  1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sugar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">统计图调研及数据核对工作。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sugar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">统计图的接口和页面开发工作。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>zeus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甘特图的需求调研工作。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+  4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>zeus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甘特图的开发工作。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>sugar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">平台统图上线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>zeus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甘特图上线使用</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高代码质量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整项目结构，优化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、完成第二阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>BI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">平台的重构工作。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、剥离底层通用代码到独立项目中。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人成长</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会议，分享及聆听经验；
+完成每周的技术博客分享</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会议并学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">;
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">多多参加组织的各种分享会。
+</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -993,7 +972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,32 +1007,38 @@
     <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1338,28 +1323,28 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="19" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="48.625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="64.125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="19"/>
-    <col min="8" max="8" width="10.875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="19"/>
+    <col min="1" max="1" width="21" style="12" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="48.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="74.875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="12"/>
+    <col min="8" max="8" width="10.875" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -1372,10 +1357,10 @@
     </row>
     <row r="2" spans="1:8" ht="22.5">
       <c r="A2" s="4"/>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="18"/>
+      <c r="B2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="21"/>
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1393,14 +1378,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="233.1" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>8</v>
+      <c r="A3" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="7">
         <v>0.8</v>
@@ -1409,47 +1394,47 @@
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="233.1" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>20</v>
+      <c r="A4" s="15"/>
+      <c r="B4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="7">
         <v>0.1</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>11</v>
+      <c r="E4" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="182.25" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>21</v>
+      <c r="A5" s="15"/>
+      <c r="B5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="7">
         <v>0.1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
@@ -1470,19 +1455,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1494,15 +1475,19 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1512,7 +1497,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1521,7 +1506,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1539,7 +1524,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1548,7 +1533,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
